--- a/Departments/LS.xlsx
+++ b/Departments/LS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C73B423-10DC-484B-BF7D-1F4268016E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B21471-4E60-4DE2-A452-2A2896BB1E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6A4819F-F223-4DF2-A61F-B1F4EEB95107}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{D6A4819F-F223-4DF2-A61F-B1F4EEB95107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>LS 999 - MA Project</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,461 +554,461 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/LS.xlsx
+++ b/Departments/LS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B21471-4E60-4DE2-A452-2A2896BB1E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C15A17-5F50-439A-997C-858C9F7D5A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{D6A4819F-F223-4DF2-A61F-B1F4EEB95107}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6A4819F-F223-4DF2-A61F-B1F4EEB95107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
   <si>
     <t>Course_Code</t>
   </si>
@@ -105,12 +105,6 @@
     <t>LS 820 - Travel Study</t>
   </si>
   <si>
-    <t>LS991</t>
-  </si>
-  <si>
-    <t>LS 991 - MA Project (Completion)</t>
-  </si>
-  <si>
     <t>LS810</t>
   </si>
   <si>
@@ -151,18 +145,6 @@
   </si>
   <si>
     <t>LS 829 - Directed Study</t>
-  </si>
-  <si>
-    <t>LS898</t>
-  </si>
-  <si>
-    <t>LS 898 - Liberal Studies Graduating Seminar</t>
-  </si>
-  <si>
-    <t>LS990</t>
-  </si>
-  <si>
-    <t>LS 990 - Extended Essays (Completion)</t>
   </si>
   <si>
     <t>LS998</t>
@@ -532,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E03A41-EAAE-4CEB-8A84-FDFDC4919876}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -623,7 +605,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -632,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -649,7 +631,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -658,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -675,7 +657,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -684,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -701,7 +683,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -710,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -727,7 +709,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -736,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -753,7 +735,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -762,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -779,7 +761,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -788,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -805,7 +787,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -814,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -831,7 +813,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -840,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -930,84 +912,6 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
         <v>13</v>
       </c>
     </row>
